--- a/biology/Virologie/Antiviral/Antiviral.xlsx
+++ b/biology/Virologie/Antiviral/Antiviral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un antiviral est une molécule perturbant le cycle de réplication d'un ou de plusieurs virus, permettant ainsi de ralentir mais rarement d'arrêter une infection virale. Avec les vaccins et la prévention, ils constituent le seul moyen connu pour lutter contre les infections d'origines virales.
-Les antiviraux sont efficaces pour lutter contre les virus[1] en attendant la mise au point d'un vaccin, qui est la seule manière connue d'éradiquer un virus à long terme, comme l'ont montré les différentes campagnes d'éradication de la poliomyélite et surtout de la variole.
+Les antiviraux sont efficaces pour lutter contre les virus en attendant la mise au point d'un vaccin, qui est la seule manière connue d'éradiquer un virus à long terme, comme l'ont montré les différentes campagnes d'éradication de la poliomyélite et surtout de la variole.
 Un antirétroviral est une classe particulière d'antiviral destinée à lutter contre les rétrovirus.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un antiviral agit en perturbant chimiquement un moment précis du cycle de réplication d'un virus. Il freine ainsi l'infection en limitant la multiplication des particules virales. Pour améliorer l'action des antiviraux, certains traitements prescrivent des médicaments stimulant la réaction du système immunitaire, comme c'est le cas avec la ribavirine avec laquelle on prescrit au patient des interférons.
 Les périodes pendant lesquelles agissent les antiviraux permettent de les classer en trois catégories :
@@ -548,7 +562,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antiviraux sont relativement récents par rapport aux vaccins, les premiers développements datent des années 1960 et sur la cinquantaine de molécules disponibles en 2007, la moitié a été mise au point après 1987.
 Les premières molécules antivirales étaient difficiles d'emploi pour un traitement médical car, bien qu'elles empêchassent la réplication du virus, elles perturbaient également le fonctionnement des cellules. Mais depuis, les molécules mises au point sont de plus en plus sélectives et efficaces.
@@ -581,12 +597,52 @@
           <t>Antiviraux connus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour ce qui est du nombre d'antiviraux existants, les plus nombreux sont ceux du VIH, et de l'hépatite C, ensuite viennent les médicaments antiherpétiques, antigrippaux, et les « autres ».
-Antirétroviraux du VIH
-Inhibiteurs nucléosidiques (INTI)
-zidovudine (Retrovir, ZDV), molécule également connue sous le nom AZT
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Inhibiteurs nucléosidiques (INTI)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>zidovudine (Retrovir, ZDV), molécule également connue sous le nom AZT
 lamivudine (Epivir, 3TC)
 emtricitabine (Emtriva, FTC)
 didanosine (Videx, ddI)
@@ -597,23 +653,175 @@
 racivir
 amdoxovir
 apricitabine
-elvucitabine
-Formes combinées
-Combivir (zidovudine + lamivudine)
+elvucitabine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Formes combinées</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Combivir (zidovudine + lamivudine)
 Kivexa (abacavir + lamivudine), association également connue sous le nom Epzicom
 Truvada (tenofovir + emtricitabine)
-Trizivir (abacavir + zidovudine + lamivudine)
-Inhibiteurs non nucléosidiques (INNTI)
-efavirenz (Sustiva, EFV), également connue sous le nom Stocrin
+Trizivir (abacavir + zidovudine + lamivudine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Inhibiteurs non nucléosidiques (INNTI)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>efavirenz (Sustiva, EFV), également connue sous le nom Stocrin
 nevirapine (Viramune, NVP)
 étravirine (Intelence)
 delavirdine (Rescriptor, DLV)
-rilpivirine (Edurant, TMC-278)
-Analogues nucléotidiques
-tenofovir (Viread, TDF)
-fosalvudine
-Associations de molécules
-Truvada (tenofovir + emtricitabine)
+rilpivirine (Edurant, TMC-278)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Analogues nucléotidiques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tenofovir (Viread, TDF)
+fosalvudine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Associations de molécules</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Truvada (tenofovir + emtricitabine)
 Epzicom (Abacavir + Lamivudine)
 Atripla (efavirenz + tenofovir + emtricitabine)
 Eviplera (rilpivirine + tenofovir + emtricitabine)
@@ -633,18 +841,128 @@
 raltégravir (Isentress, RAL)
 elvitégravir (EVG/r)
 dolutégravir (DTG)
-bictégravir (BIC)
-Inhibiteurs de la fusion
-enfuvirtide (Fuzeon, ENF), également connue sous le nom T-20
-Inhibiteurs d'entrée (CCR5)
-maraviroc (Celsentri), également connue sous le nom Selzentry
+bictégravir (BIC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la fusion</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>enfuvirtide (Fuzeon, ENF), également connue sous le nom T-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Antirétroviraux du VIH</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Inhibiteurs d'entrée (CCR5)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>maraviroc (Celsentri), également connue sous le nom Selzentry
 vicriviroc
 TNX-355
 Inhibiteurs de maturation
 Ces antiviraux agissent sur la production des protéines qui forment l’enveloppe interne du génome viral, le core, en empêchant leur constitution correcte.
-bevirimat (BVM)
-Médicaments contre l'herpès
-Ces antiviraux ne permettent pas la guérison de l'herpès, le virus persistant à vie [2] mais ils permettent d'espacer voir d'empêcher les poussées, d'éviter les complications et de limiter la contagiosité.
+bevirimat (BVM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Médicaments contre l'herpès</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces antiviraux ne permettent pas la guérison de l'herpès, le virus persistant à vie  mais ils permettent d'espacer voir d'empêcher les poussées, d'éviter les complications et de limiter la contagiosité.
 Aciclovir
 Cidofovir
 Docosanol
@@ -659,10 +977,80 @@
 Valganciclovir
 Vidarabine
 Ibacitabine
-Médicaments contre la grippe
-On compte notamment l'oseltamivir, le zanamivir, l'amantadine et la rimantadine (mais des résistances sont apparues) et les autres inhibiteurs de la neuraminidase.
-Antiviraux à « large spectre »
-Ces médicaments agissent contre de nombreux virus, et sont moins spécifiques que les autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Médicaments contre la grippe</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On compte notamment l'oseltamivir, le zanamivir, l'amantadine et la rimantadine (mais des résistances sont apparues) et les autres inhibiteurs de la neuraminidase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Antiviral</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Antiviraux connus</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Antiviraux à « large spectre »</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces médicaments agissent contre de nombreux virus, et sont moins spécifiques que les autres.
 Ceux existant aujourd'hui sont la Ribavirine, le Favipiravir, et le pleconaril (agissant sur les picornavirus pour ce dernier), voire l'interféron qui agit sur le système immunitaire comme stimulant (et non comme antiviral a action directe).
 </t>
         </is>
